--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H2">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0943932567212</v>
+        <v>1.104136666666667</v>
       </c>
       <c r="N2">
-        <v>1.0943932567212</v>
+        <v>3.31241</v>
       </c>
       <c r="O2">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998524</v>
       </c>
       <c r="P2">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998525</v>
       </c>
       <c r="Q2">
-        <v>66.70391674369587</v>
+        <v>157.7892487516222</v>
       </c>
       <c r="R2">
-        <v>66.70391674369587</v>
+        <v>1420.1032387646</v>
       </c>
       <c r="S2">
-        <v>0.09893528175836075</v>
+        <v>0.1546053400547322</v>
       </c>
       <c r="T2">
-        <v>0.09893528175836075</v>
+        <v>0.1546053400547322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H3">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.21120158385265</v>
+        <v>2.230986666666666</v>
       </c>
       <c r="N3">
-        <v>2.21120158385265</v>
+        <v>6.692959999999999</v>
       </c>
       <c r="O3">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="P3">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="Q3">
-        <v>134.7740452958681</v>
+        <v>318.8243998552888</v>
       </c>
       <c r="R3">
-        <v>134.7740452958681</v>
+        <v>2869.4195986976</v>
       </c>
       <c r="S3">
-        <v>0.1998969295355653</v>
+        <v>0.3123910858778715</v>
       </c>
       <c r="T3">
-        <v>0.1998969295355653</v>
+        <v>0.3123910858778716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H4">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.605029101401765</v>
+        <v>0.647533</v>
       </c>
       <c r="N4">
-        <v>0.605029101401765</v>
+        <v>1.942599</v>
       </c>
       <c r="O4">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="P4">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="Q4">
-        <v>36.87688183343562</v>
+        <v>92.53722722599333</v>
       </c>
       <c r="R4">
-        <v>36.87688183343562</v>
+        <v>832.83504503394</v>
       </c>
       <c r="S4">
-        <v>0.05469580907189437</v>
+        <v>0.09066998921781504</v>
       </c>
       <c r="T4">
-        <v>0.05469580907189437</v>
+        <v>0.09066998921781505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H5">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.0943932567212</v>
+        <v>1.104136666666667</v>
       </c>
       <c r="N5">
-        <v>1.0943932567212</v>
+        <v>3.31241</v>
       </c>
       <c r="O5">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998524</v>
       </c>
       <c r="P5">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998525</v>
       </c>
       <c r="Q5">
-        <v>68.6781201863167</v>
+        <v>70.62920340322999</v>
       </c>
       <c r="R5">
-        <v>68.6781201863167</v>
+        <v>635.66283062907</v>
       </c>
       <c r="S5">
-        <v>0.1018634212646886</v>
+        <v>0.06920403066966853</v>
       </c>
       <c r="T5">
-        <v>0.1018634212646886</v>
+        <v>0.06920403066966856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H6">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.21120158385265</v>
+        <v>2.230986666666666</v>
       </c>
       <c r="N6">
-        <v>2.21120158385265</v>
+        <v>6.692959999999999</v>
       </c>
       <c r="O6">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="P6">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="Q6">
-        <v>138.7628872887813</v>
+        <v>142.71132897488</v>
       </c>
       <c r="R6">
-        <v>138.7628872887813</v>
+        <v>1284.40196077392</v>
       </c>
       <c r="S6">
-        <v>0.2058131819195865</v>
+        <v>0.1398316661013778</v>
       </c>
       <c r="T6">
-        <v>0.2058131819195865</v>
+        <v>0.1398316661013778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H7">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.605029101401765</v>
+        <v>0.647533</v>
       </c>
       <c r="N7">
-        <v>0.605029101401765</v>
+        <v>1.942599</v>
       </c>
       <c r="O7">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="P7">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="Q7">
-        <v>37.96830900327375</v>
+        <v>41.421267265197</v>
       </c>
       <c r="R7">
-        <v>37.96830900327375</v>
+        <v>372.791405386773</v>
       </c>
       <c r="S7">
-        <v>0.05631461438105743</v>
+        <v>0.04058545915960507</v>
       </c>
       <c r="T7">
-        <v>0.05631461438105743</v>
+        <v>0.04058545915960508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H8">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.0943932567212</v>
+        <v>1.104136666666667</v>
       </c>
       <c r="N8">
-        <v>1.0943932567212</v>
+        <v>3.31241</v>
       </c>
       <c r="O8">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998524</v>
       </c>
       <c r="P8">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998525</v>
       </c>
       <c r="Q8">
-        <v>53.29866983453928</v>
+        <v>54.52713048178888</v>
       </c>
       <c r="R8">
-        <v>53.29866983453928</v>
+        <v>490.7441743361</v>
       </c>
       <c r="S8">
-        <v>0.07905261302252306</v>
+        <v>0.05342686917545168</v>
       </c>
       <c r="T8">
-        <v>0.07905261302252306</v>
+        <v>0.0534268691754517</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H9">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.21120158385265</v>
+        <v>2.230986666666666</v>
       </c>
       <c r="N9">
-        <v>2.21120158385265</v>
+        <v>6.692959999999999</v>
       </c>
       <c r="O9">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="P9">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="Q9">
-        <v>107.6889887904311</v>
+        <v>110.1759453779555</v>
       </c>
       <c r="R9">
-        <v>107.6889887904311</v>
+        <v>991.5835084015999</v>
       </c>
       <c r="S9">
-        <v>0.1597243605528034</v>
+        <v>0.1079527891524694</v>
       </c>
       <c r="T9">
-        <v>0.1597243605528034</v>
+        <v>0.1079527891524694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H10">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.605029101401765</v>
+        <v>0.647533</v>
       </c>
       <c r="N10">
-        <v>0.605029101401765</v>
+        <v>1.942599</v>
       </c>
       <c r="O10">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="P10">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="Q10">
-        <v>29.46586715319623</v>
+        <v>31.97803084364333</v>
       </c>
       <c r="R10">
-        <v>29.46586715319623</v>
+        <v>287.80227759279</v>
       </c>
       <c r="S10">
-        <v>0.04370378849352067</v>
+        <v>0.03133277059100874</v>
       </c>
       <c r="T10">
-        <v>0.04370378849352067</v>
+        <v>0.03133277059100875</v>
       </c>
     </row>
   </sheetData>
